--- a/data/trans_orig/IP07A01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A01-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F38A4CD-82E2-42EB-A6A4-9E46A6E9DF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BBB6D05-BE77-4953-8053-1F5E866A2ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6B912B80-2129-4D50-9597-2B34B9FC0AE8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{134B640D-F171-4CE3-A9AE-1AB3F92C102C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="589">
   <si>
     <t>Menores según frecuencia de sentirse bien y en forma en 2007 (Tasa respuesta: 47,34%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>49,97%</t>
   </si>
   <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
   </si>
   <si>
     <t>55,8%</t>
   </si>
   <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
   </si>
   <si>
     <t>52,99%</t>
   </si>
   <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -107,28 +107,28 @@
     <t>44,18%</t>
   </si>
   <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
   </si>
   <si>
     <t>29,73%</t>
   </si>
   <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
   </si>
   <si>
     <t>36,7%</t>
   </si>
   <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
   </si>
   <si>
     <t>Moderadamente</t>
@@ -140,25 +140,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>8,18%</t>
+    <t>8,43%</t>
   </si>
   <si>
     <t>11,96%</t>
   </si>
   <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
   </si>
   <si>
     <t>7,51%</t>
   </si>
   <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
   </si>
   <si>
     <t>Poco</t>
@@ -167,1639 +167,1645 @@
     <t>1,7%</t>
   </si>
   <si>
-    <t>8,31%</t>
+    <t>8,75%</t>
   </si>
   <si>
     <t>2,51%</t>
   </si>
   <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse bien y en forma en 2012 (Tasa respuesta: 44,83%)</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse bien y en forma en 2016 (Tasa respuesta: 47,32%)</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse bien y en forma en 2023 (Tasa respuesta: 50,31%)</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
     <t>8,86%</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse bien y en forma en 2012 (Tasa respuesta: 44,83%)</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse bien y en forma en 2015 (Tasa respuesta: 47,32%)</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
   </si>
   <si>
     <t>1,16%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse bien y en forma en 2023 (Tasa respuesta: 50,31%)</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
   </si>
 </sst>
 </file>
@@ -2211,7 +2217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90C244-FBDD-4549-BCC7-17221D4FF1F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4736368-233A-4494-AA77-0EE04FA22AAB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2524,13 +2530,13 @@
         <v>46</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -2539,13 +2545,13 @@
         <v>667</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2557,10 +2563,10 @@
         <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2569,13 +2575,13 @@
         <v>667</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,13 +2596,13 @@
         <v>47230</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>76</v>
@@ -2605,13 +2611,13 @@
         <v>50674</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>147</v>
@@ -2620,18 +2626,18 @@
         <v>97904</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2643,13 +2649,13 @@
         <v>124030</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>160</v>
@@ -2658,13 +2664,13 @@
         <v>106502</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>347</v>
@@ -2673,13 +2679,13 @@
         <v>230532</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,13 +2700,13 @@
         <v>97123</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H11" s="7">
         <v>124</v>
@@ -2709,13 +2715,13 @@
         <v>83235</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>270</v>
@@ -2724,13 +2730,13 @@
         <v>180358</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,13 +2751,13 @@
         <v>11221</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="H12" s="7">
         <v>17</v>
@@ -2760,13 +2766,13 @@
         <v>11748</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M12" s="7">
         <v>34</v>
@@ -2775,13 +2781,13 @@
         <v>22969</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2796,13 +2802,13 @@
         <v>4996</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -2811,13 +2817,13 @@
         <v>2632</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -2826,19 +2832,19 @@
         <v>7628</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -2847,13 +2853,13 @@
         <v>593</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2865,10 +2871,10 @@
         <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2877,13 +2883,13 @@
         <v>593</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2898,13 +2904,13 @@
         <v>237963</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" s="7">
         <v>305</v>
@@ -2913,13 +2919,13 @@
         <v>204117</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M15" s="7">
         <v>664</v>
@@ -2928,18 +2934,18 @@
         <v>442080</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2951,13 +2957,13 @@
         <v>29043</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
@@ -2966,13 +2972,13 @@
         <v>26611</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -2981,13 +2987,13 @@
         <v>55654</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,13 +3008,13 @@
         <v>28680</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>52</v>
@@ -3017,13 +3023,13 @@
         <v>35417</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>93</v>
@@ -3032,13 +3038,13 @@
         <v>64098</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3053,13 +3059,13 @@
         <v>2671</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -3068,13 +3074,13 @@
         <v>2137</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -3083,13 +3089,13 @@
         <v>4807</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,10 +3113,10 @@
         <v>32</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -3119,13 +3125,13 @@
         <v>1896</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -3134,19 +3140,19 @@
         <v>1896</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -3158,10 +3164,10 @@
         <v>32</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3170,13 +3176,13 @@
         <v>793</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3185,13 +3191,13 @@
         <v>793</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,13 +3212,13 @@
         <v>60394</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
         <v>96</v>
@@ -3221,13 +3227,13 @@
         <v>66854</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
         <v>185</v>
@@ -3236,13 +3242,13 @@
         <v>127248</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,13 +3265,13 @@
         <v>176676</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H22" s="7">
         <v>239</v>
@@ -3274,13 +3280,13 @@
         <v>161388</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M22" s="7">
         <v>506</v>
@@ -3289,13 +3295,13 @@
         <v>338063</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,13 +3316,13 @@
         <v>146669</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H23" s="7">
         <v>199</v>
@@ -3325,13 +3331,13 @@
         <v>133716</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M23" s="7">
         <v>417</v>
@@ -3340,13 +3346,13 @@
         <v>280385</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,13 +3367,13 @@
         <v>15185</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H24" s="7">
         <v>29</v>
@@ -3376,13 +3382,13 @@
         <v>19946</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M24" s="7">
         <v>52</v>
@@ -3391,13 +3397,13 @@
         <v>35131</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,13 +3418,13 @@
         <v>5798</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -3427,13 +3433,13 @@
         <v>5802</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -3442,19 +3448,19 @@
         <v>11600</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>2</v>
@@ -3463,13 +3469,13 @@
         <v>1260</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -3478,13 +3484,13 @@
         <v>793</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -3493,13 +3499,13 @@
         <v>2053</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,13 +3520,13 @@
         <v>345587</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H27" s="7">
         <v>477</v>
@@ -3529,13 +3535,13 @@
         <v>321645</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M27" s="7">
         <v>996</v>
@@ -3544,18 +3550,18 @@
         <v>667232</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3574,7 +3580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC239161-9E8E-4D1D-8B26-22FC693EAAC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2E51B8-F6DA-4E98-A050-84EADF7AC368}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3591,7 +3597,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3698,13 +3704,13 @@
         <v>14827</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -3713,13 +3719,13 @@
         <v>16604</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>45</v>
@@ -3728,13 +3734,13 @@
         <v>31430</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,13 +3755,13 @@
         <v>26104</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H5" s="7">
         <v>45</v>
@@ -3764,13 +3770,13 @@
         <v>32225</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M5" s="7">
         <v>83</v>
@@ -3779,13 +3785,13 @@
         <v>58328</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,13 +3806,13 @@
         <v>4299</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -3815,13 +3821,13 @@
         <v>3598</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -3830,13 +3836,13 @@
         <v>7897</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,13 +3857,13 @@
         <v>624</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3866,13 +3872,13 @@
         <v>656</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3881,19 +3887,19 @@
         <v>1280</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -3905,10 +3911,10 @@
         <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3920,10 +3926,10 @@
         <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3935,10 +3941,10 @@
         <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3953,13 +3959,13 @@
         <v>45853</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>75</v>
@@ -3968,13 +3974,13 @@
         <v>53083</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>140</v>
@@ -3983,18 +3989,18 @@
         <v>98935</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4006,13 +4012,13 @@
         <v>102334</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H10" s="7">
         <v>105</v>
@@ -4021,13 +4027,13 @@
         <v>72122</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M10" s="7">
         <v>256</v>
@@ -4036,13 +4042,13 @@
         <v>174456</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4057,13 +4063,13 @@
         <v>108720</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H11" s="7">
         <v>172</v>
@@ -4072,13 +4078,13 @@
         <v>121375</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M11" s="7">
         <v>328</v>
@@ -4087,13 +4093,13 @@
         <v>230095</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4108,13 +4114,13 @@
         <v>9920</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -4123,13 +4129,13 @@
         <v>9638</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>43</v>
+        <v>230</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M12" s="7">
         <v>29</v>
@@ -4138,13 +4144,13 @@
         <v>19558</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +4165,13 @@
         <v>5191</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>117</v>
+        <v>236</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -4174,13 +4180,13 @@
         <v>3009</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>242</v>
+        <v>167</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -4189,19 +4195,19 @@
         <v>8199</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>244</v>
+        <v>117</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>4</v>
@@ -4210,13 +4216,13 @@
         <v>2559</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4228,10 +4234,10 @@
         <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>248</v>
+        <v>46</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -4240,13 +4246,13 @@
         <v>2559</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,13 +4267,13 @@
         <v>228723</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" s="7">
         <v>295</v>
@@ -4276,13 +4282,13 @@
         <v>206144</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M15" s="7">
         <v>629</v>
@@ -4291,18 +4297,18 @@
         <v>434867</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4314,13 +4320,13 @@
         <v>16738</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
@@ -4329,13 +4335,13 @@
         <v>22757</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M16" s="7">
         <v>58</v>
@@ -4344,13 +4350,13 @@
         <v>39495</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>259</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,13 +4371,13 @@
         <v>35132</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -4380,13 +4386,13 @@
         <v>33943</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M17" s="7">
         <v>97</v>
@@ -4395,13 +4401,13 @@
         <v>69076</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,13 +4422,13 @@
         <v>4452</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -4431,13 +4437,13 @@
         <v>6039</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M18" s="7">
         <v>15</v>
@@ -4446,13 +4452,13 @@
         <v>10492</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,13 +4473,13 @@
         <v>942</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -4482,13 +4488,13 @@
         <v>678</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -4497,19 +4503,19 @@
         <v>1620</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -4521,10 +4527,10 @@
         <v>32</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4536,10 +4542,10 @@
         <v>32</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4551,10 +4557,10 @@
         <v>32</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4575,13 @@
         <v>57264</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
         <v>88</v>
@@ -4584,13 +4590,13 @@
         <v>63418</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
         <v>172</v>
@@ -4599,13 +4605,13 @@
         <v>120683</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,13 +4628,13 @@
         <v>133898</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H22" s="7">
         <v>161</v>
@@ -4637,13 +4643,13 @@
         <v>111483</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="M22" s="7">
         <v>359</v>
@@ -4652,13 +4658,13 @@
         <v>245381</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,13 +4679,13 @@
         <v>169956</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>106</v>
+        <v>290</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H23" s="7">
         <v>263</v>
@@ -4688,13 +4694,13 @@
         <v>187543</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="M23" s="7">
         <v>508</v>
@@ -4703,13 +4709,13 @@
         <v>357499</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>62</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,13 +4730,13 @@
         <v>18671</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H24" s="7">
         <v>28</v>
@@ -4739,13 +4745,13 @@
         <v>19275</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="M24" s="7">
         <v>54</v>
@@ -4754,13 +4760,13 @@
         <v>37946</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4775,13 +4781,13 @@
         <v>6756</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>244</v>
+        <v>309</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -4790,13 +4796,13 @@
         <v>4343</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>173</v>
+        <v>311</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -4808,16 +4814,16 @@
         <v>41</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>244</v>
+        <v>314</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>4</v>
@@ -4826,13 +4832,13 @@
         <v>2559</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4844,10 +4850,10 @@
         <v>32</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -4856,13 +4862,13 @@
         <v>2559</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4883,13 @@
         <v>331840</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H27" s="7">
         <v>458</v>
@@ -4892,13 +4898,13 @@
         <v>322645</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M27" s="7">
         <v>941</v>
@@ -4907,18 +4913,18 @@
         <v>654485</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -4937,7 +4943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE1B3F4-FF37-40A4-9BDF-BF9951641DC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863FEA77-E160-4D28-94F8-C89845CDEFEC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4954,7 +4960,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5061,13 +5067,13 @@
         <v>21104</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -5076,13 +5082,13 @@
         <v>16222</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="M4" s="7">
         <v>52</v>
@@ -5091,13 +5097,13 @@
         <v>37326</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5112,13 +5118,13 @@
         <v>13980</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -5127,13 +5133,13 @@
         <v>12865</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -5142,13 +5148,13 @@
         <v>26846</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,13 +5169,13 @@
         <v>662</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -5178,13 +5184,13 @@
         <v>2110</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -5193,13 +5199,13 @@
         <v>2772</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,13 +5220,13 @@
         <v>891</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5229,13 +5235,13 @@
         <v>617</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -5244,19 +5250,19 @@
         <v>1508</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>50</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -5268,7 +5274,7 @@
         <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>355</v>
@@ -5283,7 +5289,7 @@
         <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>356</v>
@@ -5298,7 +5304,7 @@
         <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>357</v>
@@ -5316,13 +5322,13 @@
         <v>36638</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>46</v>
@@ -5331,13 +5337,13 @@
         <v>31814</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>97</v>
@@ -5346,18 +5352,18 @@
         <v>68453</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5390,7 +5396,7 @@
         <v>362</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>363</v>
+        <v>112</v>
       </c>
       <c r="M10" s="7">
         <v>383</v>
@@ -5399,13 +5405,13 @@
         <v>272366</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5420,13 +5426,13 @@
         <v>90595</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="H11" s="7">
         <v>149</v>
@@ -5435,13 +5441,13 @@
         <v>103220</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M11" s="7">
         <v>273</v>
@@ -5477,7 +5483,7 @@
         <v>376</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>345</v>
+        <v>377</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -5486,13 +5492,13 @@
         <v>11459</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>247</v>
+        <v>379</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M12" s="7">
         <v>29</v>
@@ -5501,13 +5507,13 @@
         <v>21986</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5522,13 +5528,13 @@
         <v>3213</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>382</v>
+        <v>170</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>383</v>
+        <v>239</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -5540,10 +5546,10 @@
         <v>384</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>246</v>
+        <v>385</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -5552,19 +5558,19 @@
         <v>6099</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>249</v>
+        <v>312</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -5573,13 +5579,13 @@
         <v>690</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>246</v>
+        <v>389</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -5588,13 +5594,13 @@
         <v>2264</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>388</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>390</v>
+        <v>207</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -5603,13 +5609,13 @@
         <v>2955</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>318</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>129</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5624,13 +5630,13 @@
         <v>246662</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" s="7">
         <v>360</v>
@@ -5639,13 +5645,13 @@
         <v>250559</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M15" s="7">
         <v>697</v>
@@ -5654,18 +5660,18 @@
         <v>497221</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5677,7 +5683,7 @@
         <v>48953</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>391</v>
+        <v>109</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>392</v>
@@ -5692,13 +5698,13 @@
         <v>35603</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>256</v>
+        <v>394</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M16" s="7">
         <v>117</v>
@@ -5707,13 +5713,13 @@
         <v>84556</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>396</v>
+        <v>134</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5728,13 +5734,13 @@
         <v>22759</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -5743,13 +5749,13 @@
         <v>33103</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="M17" s="7">
         <v>78</v>
@@ -5758,13 +5764,13 @@
         <v>55861</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5779,13 +5785,13 @@
         <v>4597</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -5794,13 +5800,13 @@
         <v>2752</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -5809,13 +5815,13 @@
         <v>7349</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,7 +5836,7 @@
         <v>1753</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>32</v>
@@ -5860,19 +5866,19 @@
         <v>3901</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -5884,10 +5890,10 @@
         <v>32</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5896,13 +5902,13 @@
         <v>792</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>423</v>
+        <v>236</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5911,13 +5917,13 @@
         <v>792</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>426</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5932,13 +5938,13 @@
         <v>78061</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
         <v>104</v>
@@ -5947,13 +5953,13 @@
         <v>74398</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
         <v>212</v>
@@ -5962,13 +5968,13 @@
         <v>152459</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,13 +5991,13 @@
         <v>211694</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H22" s="7">
         <v>262</v>
@@ -6000,13 +6006,13 @@
         <v>182554</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M22" s="7">
         <v>552</v>
@@ -6015,13 +6021,13 @@
         <v>394248</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6036,13 +6042,13 @@
         <v>127333</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>437</v>
+        <v>367</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="H23" s="7">
         <v>214</v>
@@ -6051,13 +6057,13 @@
         <v>149189</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>440</v>
+        <v>105</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="M23" s="7">
         <v>390</v>
@@ -6066,13 +6072,13 @@
         <v>276522</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6087,13 +6093,13 @@
         <v>15786</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="H24" s="7">
         <v>22</v>
@@ -6102,13 +6108,13 @@
         <v>16322</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="M24" s="7">
         <v>44</v>
@@ -6117,13 +6123,13 @@
         <v>32108</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6138,13 +6144,13 @@
         <v>5858</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>53</v>
+        <v>448</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>452</v>
+        <v>131</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -6153,13 +6159,13 @@
         <v>5651</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -6168,19 +6174,19 @@
         <v>11508</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>457</v>
+        <v>322</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>1</v>
@@ -6189,13 +6195,13 @@
         <v>690</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>459</v>
+        <v>317</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>460</v>
+        <v>165</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -6204,13 +6210,13 @@
         <v>3056</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>176</v>
+        <v>417</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>285</v>
+        <v>455</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -6219,13 +6225,13 @@
         <v>3746</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6240,13 +6246,13 @@
         <v>361361</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H27" s="7">
         <v>510</v>
@@ -6255,13 +6261,13 @@
         <v>356772</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M27" s="7">
         <v>1006</v>
@@ -6270,18 +6276,18 @@
         <v>718133</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -6300,7 +6306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306C80C7-220D-4DAB-816D-D26480BC465F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FE4E52-A121-487E-A407-DD096D126D9A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6317,7 +6323,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6424,13 +6430,13 @@
         <v>8924</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -6439,13 +6445,13 @@
         <v>21061</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="M4" s="7">
         <v>37</v>
@@ -6454,13 +6460,13 @@
         <v>29985</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6475,13 +6481,13 @@
         <v>11221</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -6490,13 +6496,13 @@
         <v>5983</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
@@ -6505,13 +6511,13 @@
         <v>17205</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>152</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6526,13 +6532,13 @@
         <v>3861</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6541,13 +6547,13 @@
         <v>391</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -6556,13 +6562,13 @@
         <v>4251</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>487</v>
+        <v>315</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6577,13 +6583,13 @@
         <v>2615</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6595,10 +6601,10 @@
         <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -6607,19 +6613,19 @@
         <v>2615</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -6631,10 +6637,10 @@
         <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6649,7 +6655,7 @@
         <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -6658,13 +6664,13 @@
         <v>548</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6679,13 +6685,13 @@
         <v>26621</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>34</v>
@@ -6694,13 +6700,13 @@
         <v>27983</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>67</v>
@@ -6709,18 +6715,18 @@
         <v>54604</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6732,13 +6738,13 @@
         <v>191809</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="H10" s="7">
         <v>201</v>
@@ -6747,13 +6753,13 @@
         <v>159163</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="M10" s="7">
         <v>412</v>
@@ -6762,13 +6768,13 @@
         <v>350972</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6783,13 +6789,13 @@
         <v>82088</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="H11" s="7">
         <v>114</v>
@@ -6798,13 +6804,13 @@
         <v>80509</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>512</v>
+        <v>337</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="M11" s="7">
         <v>212</v>
@@ -6813,13 +6819,13 @@
         <v>162597</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6834,13 +6840,13 @@
         <v>15896</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -6849,13 +6855,13 @@
         <v>5686</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>520</v>
+        <v>236</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>375</v>
+        <v>514</v>
       </c>
       <c r="M12" s="7">
         <v>26</v>
@@ -6864,13 +6870,13 @@
         <v>21583</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>160</v>
+        <v>515</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>521</v>
+        <v>230</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>156</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6885,13 +6891,13 @@
         <v>3483</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>314</v>
+        <v>126</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>523</v>
+        <v>230</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -6900,13 +6906,13 @@
         <v>4534</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>518</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -6915,19 +6921,19 @@
         <v>8016</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>525</v>
+        <v>169</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>526</v>
+        <v>316</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -6936,13 +6942,13 @@
         <v>944</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -6951,13 +6957,13 @@
         <v>993</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>165</v>
+        <v>308</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -6966,13 +6972,13 @@
         <v>1937</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>531</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6987,13 +6993,13 @@
         <v>294220</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" s="7">
         <v>329</v>
@@ -7002,13 +7008,13 @@
         <v>250885</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M15" s="7">
         <v>663</v>
@@ -7017,18 +7023,18 @@
         <v>545105</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7040,13 +7046,13 @@
         <v>64582</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -7055,13 +7061,13 @@
         <v>41734</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="M16" s="7">
         <v>134</v>
@@ -7070,13 +7076,13 @@
         <v>106316</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7091,13 +7097,13 @@
         <v>28004</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="H17" s="7">
         <v>52</v>
@@ -7106,13 +7112,13 @@
         <v>36609</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="M17" s="7">
         <v>91</v>
@@ -7121,13 +7127,13 @@
         <v>64613</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7142,13 +7148,13 @@
         <v>4582</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -7160,10 +7166,10 @@
         <v>31</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>485</v>
+        <v>545</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -7172,13 +7178,13 @@
         <v>6856</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>168</v>
+        <v>546</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7196,10 +7202,10 @@
         <v>32</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -7208,13 +7214,13 @@
         <v>1578</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -7223,19 +7229,19 @@
         <v>1578</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>91</v>
+        <v>551</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -7244,13 +7250,13 @@
         <v>725</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>240</v>
+        <v>554</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -7259,13 +7265,13 @@
         <v>823</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>85</v>
+        <v>555</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -7274,13 +7280,13 @@
         <v>1548</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>176</v>
+        <v>417</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>560</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7295,13 +7301,13 @@
         <v>97893</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
         <v>114</v>
@@ -7310,13 +7316,13 @@
         <v>83017</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
         <v>236</v>
@@ -7325,13 +7331,13 @@
         <v>180910</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7348,13 +7354,13 @@
         <v>265314</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>427</v>
+        <v>558</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="H22" s="7">
         <v>281</v>
@@ -7363,13 +7369,13 @@
         <v>221958</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="M22" s="7">
         <v>583</v>
@@ -7378,13 +7384,13 @@
         <v>487272</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7399,13 +7405,13 @@
         <v>121314</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H23" s="7">
         <v>174</v>
@@ -7414,13 +7420,13 @@
         <v>123101</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="M23" s="7">
         <v>324</v>
@@ -7429,13 +7435,13 @@
         <v>244415</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>577</v>
+        <v>537</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7450,13 +7456,13 @@
         <v>24339</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>344</v>
+        <v>576</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
@@ -7465,13 +7471,13 @@
         <v>8350</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>550</v>
+        <v>578</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="M24" s="7">
         <v>38</v>
@@ -7480,13 +7486,13 @@
         <v>32689</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>523</v>
+        <v>416</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7501,13 +7507,13 @@
         <v>6098</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>527</v>
+        <v>31</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -7516,13 +7522,13 @@
         <v>6111</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>584</v>
+        <v>345</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>95</v>
+        <v>553</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -7531,19 +7537,19 @@
         <v>12209</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>388</v>
+        <v>583</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>52</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>2</v>
@@ -7552,13 +7558,13 @@
         <v>1669</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>525</v>
+        <v>584</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -7567,13 +7573,13 @@
         <v>2364</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>248</v>
+        <v>46</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>250</v>
+        <v>585</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>352</v>
+        <v>586</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -7582,13 +7588,13 @@
         <v>4033</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>462</v>
+        <v>588</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7603,13 +7609,13 @@
         <v>418734</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H27" s="7">
         <v>477</v>
@@ -7618,13 +7624,13 @@
         <v>361884</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M27" s="7">
         <v>966</v>
@@ -7633,18 +7639,18 @@
         <v>780619</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
